--- a/biology/Botanique/Santolina/Santolina.xlsx
+++ b/biology/Botanique/Santolina/Santolina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santolina (les Santolines) est un genre de plante à fleurs de la famille des Astéracées. Ce sont des plantes herbacées. Leur nom dérive du latin sanctus, « saint » et Linum, lin, la Santoline petit-cyprès (qui délivre une forte odeur de santoline piquante) étant considérée comme un lin sacré en raison des qualités médicinales qui lui étaient attribuées[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santolina (les Santolines) est un genre de plante à fleurs de la famille des Astéracées. Ce sont des plantes herbacées. Leur nom dérive du latin sanctus, « saint » et Linum, lin, la Santoline petit-cyprès (qui délivre une forte odeur de santoline piquante) étant considérée comme un lin sacré en raison des qualités médicinales qui lui étaient attribuées. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces, sous-espèces et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (23 oct. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (23 oct. 2012) :
 Santolina adscensionis
 Santolina africana
 Santolina ageratifolia
@@ -540,11 +554,11 @@
 Santolina villosa
 Santolina virens
 Santolina viscosa
-Selon ITIS      (23 oct. 2012)[3] :
+Selon ITIS      (23 oct. 2012) :
 Santolina chamaecyparissus L.
 Santolina neapolitana Jord. &amp; Fourr.
 Santolina rosmarinifolia L.
-Selon Catalogue of Life                                   (23 oct. 2012)[4] :
+Selon Catalogue of Life                                   (23 oct. 2012) :
 Santolina africana
 Santolina benthamiana
 Santolina canescens
